--- a/data/trans_bre/P2A_enfcro_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P2A_enfcro_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.667628489038706</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.402733904119003</v>
+        <v>2.402733904118992</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1322439423906381</v>
@@ -649,7 +649,7 @@
         <v>0.1265896816649387</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.07618211886752956</v>
+        <v>0.07618211886752921</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.060762122481511</v>
+        <v>-2.261895931826023</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.366534344986817</v>
+        <v>-6.467901916560212</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.838929448970711</v>
+        <v>-1.333368080110696</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.203973002128782</v>
+        <v>-2.983726372385944</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.04528092433688979</v>
+        <v>-0.04742455482444709</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1383449414557325</v>
+        <v>-0.1230150566069632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.03825504244449826</v>
+        <v>-0.02703722189736124</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.09178449335988975</v>
+        <v>-0.08324856974077414</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.24082242484235</v>
+        <v>13.52023857840022</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.73224394399616</v>
+        <v>8.815277720586272</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.64357723681446</v>
+        <v>14.00323997836375</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.744850092766183</v>
+        <v>7.391830128441804</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3227837169141148</v>
+        <v>0.3393765358352744</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1916796633577231</v>
+        <v>0.1922853922889321</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3163838935818872</v>
+        <v>0.344593236121596</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.2776584005190069</v>
+        <v>0.2620850068048604</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.083331043236926</v>
+        <v>1.163024264667885</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.223741565299933</v>
+        <v>1.314011432649611</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.519133856580269</v>
+        <v>-4.520695338471315</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-7.427498052492823</v>
+        <v>-8.231264706884115</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02292816960996435</v>
+        <v>0.02350473980358102</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04081058907982102</v>
+        <v>0.02567994399635279</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1097024820289778</v>
+        <v>-0.09152735867778167</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2175342948986713</v>
+        <v>-0.233712266203225</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.42760223823617</v>
+        <v>15.42330810237905</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.03319361803402</v>
+        <v>16.22502725716013</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.279729865212628</v>
+        <v>9.891022401783314</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.728490029767184</v>
+        <v>4.6822385784906</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3896609953326632</v>
+        <v>0.3777739409134169</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.340657136240521</v>
+        <v>0.3436165721602096</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2159244724428775</v>
+        <v>0.2241457232310707</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1292488332048566</v>
+        <v>0.1652744570348418</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.214069721530755</v>
+        <v>2.539140617948481</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.000244494701234</v>
+        <v>5.719537982211506</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.628328351248958</v>
+        <v>2.410013525707696</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5.777360334845354</v>
+        <v>6.085153088411632</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.05531998753612145</v>
+        <v>0.05281843127811869</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1013648843846432</v>
+        <v>0.09449917326436524</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0450851152645478</v>
+        <v>0.04059767245796969</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.1716676579080212</v>
+        <v>0.1900707279993016</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>19.89497355353668</v>
+        <v>19.69074762272982</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>20.0920761867619</v>
+        <v>19.29696048288228</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19.93756952200002</v>
+        <v>19.75060013566901</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20.39888803964915</v>
+        <v>20.8614411336554</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4793480437741534</v>
+        <v>0.4533675115453857</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3657426935847333</v>
+        <v>0.3503521793584895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3819010115937053</v>
+        <v>0.3727761636975188</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.7311506811878701</v>
+        <v>0.7536419478587058</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.195813076558506</v>
+        <v>5.807382812452643</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9339547407610403</v>
+        <v>1.225530912517706</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.150317165167401</v>
+        <v>-4.584216568878686</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.138942155536235</v>
+        <v>-3.198306946415792</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.122289431539742</v>
+        <v>0.1182668717953667</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01563208177364088</v>
+        <v>0.02037620482299024</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0759887930118882</v>
+        <v>-0.08174175545382754</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08204292473145659</v>
+        <v>-0.08457830359796906</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.11011892854854</v>
+        <v>15.35460586867525</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>10.33637402440261</v>
+        <v>10.63902932749609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.508250654459382</v>
+        <v>5.001875840236033</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.11821656001116</v>
+        <v>4.728145806267309</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3247033500374665</v>
+        <v>0.3307573383622782</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1860618190639855</v>
+        <v>0.1923569810635068</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09136999629400194</v>
+        <v>0.0985172885786063</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.157394561221576</v>
+        <v>0.1441354980028431</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>17.24605157771313</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12.30382585884584</v>
+        <v>12.30382585884583</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2546709927220744</v>
@@ -1049,7 +1049,7 @@
         <v>0.3266777156338163</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.3562464483613798</v>
+        <v>0.3562464483613796</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.956653942981828</v>
+        <v>5.251246349426159</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.07020707070115</v>
+        <v>11.88482076260572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.94544565114954</v>
+        <v>11.89722229124076</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6.806767112570807</v>
+        <v>7.22619268733427</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1070440323525872</v>
+        <v>0.1013222550383397</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1835808330505125</v>
+        <v>0.1976839805009026</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2143283582053868</v>
+        <v>0.2152969315811156</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.1782386260237313</v>
+        <v>0.1874328415819219</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.10284719890359</v>
+        <v>19.21190675451276</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.47991773531606</v>
+        <v>22.56634048506559</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.41975930637305</v>
+        <v>22.88146875289905</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.92678501796041</v>
+        <v>17.34089868729576</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.4268663181326598</v>
+        <v>0.4455533770109109</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4239421537840861</v>
+        <v>0.4325133758908963</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4525143859777478</v>
+        <v>0.460007041686135</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5437178976564206</v>
+        <v>0.552820170456808</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>35.7494109664185</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22.04432256441554</v>
+        <v>22.04432256441555</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>1.823677495882291</v>
@@ -1149,7 +1149,7 @@
         <v>1.119455223276502</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1.002715394351853</v>
+        <v>1.002715394351854</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>37.20634894980162</v>
+        <v>37.36248322804399</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>29.02772427003698</v>
+        <v>28.92656177704323</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29.17174562980034</v>
+        <v>29.74254763970123</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12.7797536376313</v>
+        <v>11.4843761203735</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>1.316403565450891</v>
+        <v>1.345720010419679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6781924501196086</v>
+        <v>0.6737873590546172</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7780054611729207</v>
+        <v>0.8089908515861146</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4183407887031574</v>
+        <v>0.3495099397211704</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>48.6479868156311</v>
+        <v>48.37516628757501</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>42.43817592821253</v>
+        <v>42.09870736389914</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>41.71824355039958</v>
+        <v>42.42594855852498</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>30.22071629228469</v>
+        <v>29.62292197258242</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.523419615401027</v>
+        <v>2.509035729573942</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.359864025217776</v>
+        <v>1.341830986252186</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.540753401349367</v>
+        <v>1.626056339092507</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.128340260512767</v>
+        <v>1.949938430698412</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>11.36909515764336</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7.196756670582488</v>
+        <v>7.196756670582493</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3614471763193107</v>
@@ -1249,7 +1249,7 @@
         <v>0.2281926313272972</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2205050511548403</v>
+        <v>0.2205050511548404</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>13.46287764910387</v>
+        <v>13.77870552047809</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>11.02684530551556</v>
+        <v>11.33918006155481</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>8.742977858770494</v>
+        <v>8.936431666245342</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4.932376341246721</v>
+        <v>4.841841143213972</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2940365684308034</v>
+        <v>0.3022235330916139</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1987973602618734</v>
+        <v>0.2057241948609559</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1716770149589601</v>
+        <v>0.1750423619316667</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.1454875270925207</v>
+        <v>0.142455368887319</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.2728769144359</v>
+        <v>18.56642678842385</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.84054636808657</v>
+        <v>15.98859971854087</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.75226796355287</v>
+        <v>13.62395352295274</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.309740932779446</v>
+        <v>9.222181031620662</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4251369725366291</v>
+        <v>0.4312364751172537</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3020254606220146</v>
+        <v>0.3044765132336983</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2843945480581219</v>
+        <v>0.2821509543297975</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2986696514396968</v>
+        <v>0.2931003560018541</v>
       </c>
     </row>
     <row r="25">
